--- a/import-excel/uploads/Data.xlsx
+++ b/import-excel/uploads/Data.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hype GLK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5388D89A-EF43-4696-8328-31F54AA1425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1081943-38C9-43F4-91D8-BD3621AFDAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{07BF3DEF-41DA-47A2-B7A1-AE5FBE855E80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51E4D744-6D2B-4D0E-B985-E276FAC7FFFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="mari_belajar (7)" sheetId="1" r:id="rId1"/>
+    <sheet name="mari_belajar (9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -43,126 +43,129 @@
     <t>Whatsapp</t>
   </si>
   <si>
+    <t>Setatus</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Komputer Kls 1 (8 x P)</t>
+  </si>
+  <si>
+    <t>Cibanjar</t>
+  </si>
+  <si>
+    <t>02/01/2026/Friday</t>
+  </si>
+  <si>
+    <t>Diterima</t>
+  </si>
+  <si>
+    <t>Fadli</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Ciparagejaya</t>
+  </si>
+  <si>
+    <t>03/01/2026/Saturday</t>
+  </si>
+  <si>
+    <t>Rahmat</t>
+  </si>
+  <si>
+    <t>Komputer Kls 2 (8 x P)</t>
+  </si>
+  <si>
+    <t>Rohatin</t>
+  </si>
+  <si>
+    <t>Komputer Kls 1 (12 x P)</t>
+  </si>
+  <si>
+    <t>Tempuran</t>
+  </si>
+  <si>
+    <t>Azri Faiz</t>
+  </si>
+  <si>
+    <t>Komputer Kls 3 (8 x P)</t>
+  </si>
+  <si>
+    <t>Wahidik</t>
+  </si>
+  <si>
+    <t>Komputer Kls 2 (12 x P)</t>
+  </si>
+  <si>
+    <t>Ayunin</t>
+  </si>
+  <si>
+    <t>Faiz</t>
+  </si>
+  <si>
+    <t>Masni</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>Tempuan</t>
+  </si>
+  <si>
+    <t>Wastirah</t>
+  </si>
+  <si>
+    <t>Adil</t>
+  </si>
+  <si>
+    <t>Pulomulya</t>
+  </si>
+  <si>
+    <t>Dadan</t>
+  </si>
+  <si>
+    <t>Sarif</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
+  </si>
+  <si>
+    <t>Warsih</t>
+  </si>
+  <si>
+    <t>Darma</t>
+  </si>
+  <si>
+    <t>Arianti</t>
+  </si>
+  <si>
+    <t>Cianjur</t>
+  </si>
+  <si>
+    <t>Warna</t>
+  </si>
+  <si>
+    <t>Rani Mardia</t>
+  </si>
+  <si>
+    <t>Rahwi</t>
+  </si>
+  <si>
+    <t>Warni</t>
+  </si>
+  <si>
+    <t>Endi</t>
+  </si>
+  <si>
     <t>Candra</t>
   </si>
   <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>Komputer Kls 3 (12 x P)</t>
-  </si>
-  <si>
-    <t>Ciparagejaya</t>
-  </si>
-  <si>
-    <t>02/01/2026/Friday</t>
-  </si>
-  <si>
-    <t>Rani</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Komputer Kls 1 (8 x P)</t>
-  </si>
-  <si>
-    <t>Cibanjar</t>
-  </si>
-  <si>
-    <t>Fadli</t>
-  </si>
-  <si>
-    <t>03/01/2026/Saturday</t>
-  </si>
-  <si>
-    <t>Rahmat</t>
-  </si>
-  <si>
-    <t>Komputer Kls 2 (8 x P)</t>
-  </si>
-  <si>
-    <t>Rohatin</t>
-  </si>
-  <si>
-    <t>Komputer Kls 1 (12 x P)</t>
-  </si>
-  <si>
-    <t>Tempuran</t>
-  </si>
-  <si>
-    <t>Azri Faiz</t>
-  </si>
-  <si>
-    <t>Komputer Kls 3 (8 x P)</t>
-  </si>
-  <si>
-    <t>Wahidik</t>
-  </si>
-  <si>
-    <t>Komputer Kls 2 (12 x P)</t>
-  </si>
-  <si>
-    <t>Ayunin</t>
-  </si>
-  <si>
-    <t>Faiz</t>
-  </si>
-  <si>
-    <t>Masni</t>
-  </si>
-  <si>
-    <t>Farhan</t>
-  </si>
-  <si>
-    <t>Tempuan</t>
-  </si>
-  <si>
-    <t>Wastirah</t>
-  </si>
-  <si>
-    <t>Adil</t>
-  </si>
-  <si>
-    <t>Pulomulya</t>
-  </si>
-  <si>
-    <t>Dadan</t>
-  </si>
-  <si>
-    <t>Sarif</t>
-  </si>
-  <si>
-    <t>Rahmawati</t>
-  </si>
-  <si>
-    <t>Warsih</t>
-  </si>
-  <si>
-    <t>Darma</t>
-  </si>
-  <si>
-    <t>Arianti</t>
-  </si>
-  <si>
-    <t>Cianjur</t>
-  </si>
-  <si>
-    <t>Warna</t>
-  </si>
-  <si>
-    <t>Rani Mardia</t>
-  </si>
-  <si>
-    <t>Rahwi</t>
-  </si>
-  <si>
-    <t>Warni</t>
-  </si>
-  <si>
-    <t>Endi</t>
-  </si>
-  <si>
     <t>Wisnu</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t>Dani</t>
   </si>
   <si>
-    <t>Fasha</t>
-  </si>
-  <si>
     <t>Warsan</t>
   </si>
   <si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Kasih</t>
+  </si>
+  <si>
+    <t>25/02/2026/Wednesday</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>Rangga Lawe</t>
   </si>
 </sst>
 </file>
@@ -707,12 +716,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,23 +1081,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D67E0B-D2C1-4C28-ADB8-8ECEA2D333FB}">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B5E91-DD17-494B-8ECA-3FF1E467A198}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,111 +1122,126 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1219,22 +1249,25 @@
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1242,206 +1275,233 @@
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2">
-        <v>8577683276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
-        <v>8577683276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1449,22 +1509,25 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1472,91 +1535,103 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
@@ -1564,22 +1639,25 @@
       <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
@@ -1587,22 +1665,25 @@
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1610,137 +1691,155 @@
       <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>22</v>
@@ -1748,45 +1847,51 @@
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="2">
-        <v>8577683276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
@@ -1794,45 +1899,51 @@
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
@@ -1840,22 +1951,25 @@
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>22</v>
@@ -1863,19 +1977,22 @@
       <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
@@ -1886,54 +2003,89 @@
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2">
-        <v>85776821436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G36" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="2">
-        <v>85776821436</v>
+        <v>58</v>
+      </c>
+      <c r="G37" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="3">
+        <v>85776821436</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
